--- a/trends/temp/table4.xlsx
+++ b/trends/temp/table4.xlsx
@@ -49,22 +49,22 @@
     <t>(0.0001)</t>
   </si>
   <si>
+    <t>(0.0003)</t>
+  </si>
+  <si>
     <t>(0.0)</t>
   </si>
   <si>
-    <t>(0.0002)</t>
-  </si>
-  <si>
     <t>(0.0004)</t>
   </si>
   <si>
-    <t>(0.0006)</t>
-  </si>
-  <si>
-    <t>(0.0013)</t>
-  </si>
-  <si>
-    <t>(0.001)</t>
+    <t>(0.0007)</t>
+  </si>
+  <si>
+    <t>(0.0011)</t>
+  </si>
+  <si>
+    <t>(0.0009)</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -583,10 +583,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/trends/temp/table4.xlsx
+++ b/trends/temp/table4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>year range</t>
   </si>
@@ -49,22 +49,37 @@
     <t>(0.0001)</t>
   </si>
   <si>
+    <t>(0.0014)</t>
+  </si>
+  <si>
+    <t>(0.0006)</t>
+  </si>
+  <si>
+    <t>(0.0008)</t>
+  </si>
+  <si>
+    <t>(0.0013)</t>
+  </si>
+  <si>
     <t>(0.0003)</t>
   </si>
   <si>
-    <t>(0.0)</t>
-  </si>
-  <si>
-    <t>(0.0004)</t>
-  </si>
-  <si>
-    <t>(0.0007)</t>
-  </si>
-  <si>
-    <t>(0.0011)</t>
-  </si>
-  <si>
-    <t>(0.0009)</t>
+    <t>(0.001)</t>
+  </si>
+  <si>
+    <t>(0.0005)</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
+  </si>
+  <si>
+    <t>(0.0072)</t>
+  </si>
+  <si>
+    <t>(0.0021)</t>
+  </si>
+  <si>
+    <t>(0.0076)</t>
   </si>
 </sst>
 </file>
@@ -447,10 +462,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.7785</v>
+        <v>0.7766</v>
       </c>
       <c r="D2">
-        <v>1.22</v>
+        <v>1.2239</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -461,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.5094</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="D4">
-        <v>0.7482</v>
+        <v>0.7449</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5381</v>
+        <v>0.5382</v>
       </c>
       <c r="D6">
-        <v>0.8357</v>
+        <v>0.8305</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -522,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5846</v>
+        <v>0.5835</v>
       </c>
       <c r="D8">
-        <v>0.8087</v>
+        <v>0.8093</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.6094000000000001</v>
+        <v>0.6107</v>
       </c>
       <c r="D10">
-        <v>0.8164</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -572,10 +587,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.5046</v>
+        <v>0.5034</v>
       </c>
       <c r="D12">
-        <v>0.7498</v>
+        <v>0.7437</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -583,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -597,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>0.7000999999999999</v>
+        <v>0.7016</v>
       </c>
       <c r="D14">
-        <v>1.1079</v>
+        <v>1.1141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -608,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
